--- a/New Class.xlsx
+++ b/New Class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Future\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Future\Desktop\OOP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE6AD15-5EF1-4B04-838F-B0BEE96C1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6271C-5EDA-4DE8-9F46-0F70E59D99FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2BACBA4-F978-4C4E-963D-0EF9318F6EA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2BACBA4-F978-4C4E-963D-0EF9318F6EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>BookingDay</t>
   </si>
@@ -246,6 +246,33 @@
   </si>
   <si>
     <t xml:space="preserve">car_amount </t>
+  </si>
+  <si>
+    <t>BookHistory</t>
+  </si>
+  <si>
+    <t>check_booking</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>EndBook</t>
+  </si>
+  <si>
+    <t>StartBook</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>RatingAvg</t>
+  </si>
+  <si>
+    <t>cal_avg</t>
+  </si>
+  <si>
+    <t>booked_car</t>
   </si>
 </sst>
 </file>
@@ -637,18 +664,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9495896E-57FF-4815-96F5-F4F33E503138}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="A1:B62"/>
+      <selection activeCell="F62" sqref="E61:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -664,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -672,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -680,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -688,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -696,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -704,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -712,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -720,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -728,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -736,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -744,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -752,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -760,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -768,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -776,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -784,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -792,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -800,7 +828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -808,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -816,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -824,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -832,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -840,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -848,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -856,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -864,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -872,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -880,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -888,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -896,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -904,7 +932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -912,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -920,7 +948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -928,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -936,7 +964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -944,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -952,7 +980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -960,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -968,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -976,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -984,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -992,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1000,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1008,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1016,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1024,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1032,7 +1060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1048,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1056,7 +1084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -1064,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1072,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1080,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1088,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1096,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1104,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -1112,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1120,7 +1148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -1128,20 +1156,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
